--- a/public/dokumente/checkliste_einradhockeyturnier_fuer_ausrichter.xlsx
+++ b/public/dokumente/checkliste_einradhockeyturnier_fuer_ausrichter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bbcdf3ccb6e7d6ff/Cloud der Deutschen Einradhockeyliga/Arbeitsgruppen/AG Turniercheckliste/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{C7191048-9296-4795-A9DF-EDA8355E960C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{887A86EA-1CB4-464F-9B86-9C12E533BBE1}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{C7191048-9296-4795-A9DF-EDA8355E960C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{596B6A0C-44EB-4DC5-8C28-BA468BFD19FB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -374,18 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -415,6 +403,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,22 +732,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="18.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -762,14 +762,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="2:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="2:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -786,295 +786,295 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="21"/>
-      <c r="C5" s="23" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="33"/>
+      <c r="C5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="24" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="20"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="14"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="23" t="s">
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="33"/>
+      <c r="C9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="23" t="s">
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="33"/>
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="29" t="s">
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-      <c r="C12" s="29" t="s">
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="33"/>
+      <c r="C12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="24" t="s">
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
       <c r="D14" s="14"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="28"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="23" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="33"/>
+      <c r="C16" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="14"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="29" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="33"/>
+      <c r="C17" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="29" t="s">
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="33"/>
+      <c r="C18" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="29"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="20"/>
-      <c r="C19" s="24" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="32"/>
+      <c r="C19" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="1"/>
       <c r="D20" s="14"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="16"/>
-      <c r="E21" s="33"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
-      <c r="C22" s="23" t="s">
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
+      <c r="C22" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="14"/>
-      <c r="E22" s="29"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
-      <c r="C23" s="24" t="s">
+    <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="24"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="1"/>
       <c r="D24" s="14"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="29" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="33"/>
+      <c r="C26" s="25" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="29"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="23" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="33"/>
+      <c r="C27" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="29"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
-      <c r="C28" s="23" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="33"/>
+      <c r="C28" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="23" t="s">
+    <row r="29" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="33"/>
+      <c r="C29" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="29"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="20"/>
-      <c r="C30" s="24" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="32"/>
+      <c r="C30" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="1"/>
       <c r="D31" s="14"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="2:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
+    <row r="32" spans="2:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="18" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="16"/>
-      <c r="E32" s="33"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="24" t="s">
+    <row r="33" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="32"/>
+      <c r="C33" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="24"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="10"/>
     </row>
   </sheetData>
